--- a/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:46:48+00:00</t>
+    <t>2025-10-06T13:06:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T13:06:28+00:00</t>
+    <t>2025-10-06T13:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/339-flux-4---préciser-la-signification-métier-de-la-date-de-statut/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T13:32:44+00:00</t>
+    <t>2025-10-09T08:13:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
